--- a/05_results_graphs/Coefficients_top_models.xlsx
+++ b/05_results_graphs/Coefficients_top_models.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uqasmi57/Documents/Offline_Projects/rare_reptiles/05_results_graphs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2044F08E-A1BC-DE4D-9A72-2116190714A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF02A5B-01C4-F545-AF30-2A1CA74A3B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="600" windowWidth="22840" windowHeight="13720"/>
+    <workbookView xWindow="40" yWindow="600" windowWidth="22840" windowHeight="13720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coefficients_top_models" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="20">
   <si>
     <t>Estimate</t>
   </si>
@@ -71,13 +84,25 @@
   </si>
   <si>
     <t>Location (Pinkawillinie)</t>
+  </si>
+  <si>
+    <t>&lt;0.001</t>
+  </si>
+  <si>
+    <t>z value</t>
+  </si>
+  <si>
+    <t>p value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -211,6 +236,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -554,8 +585,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -910,347 +946,513 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D29" sqref="A1:D29"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>2.843</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>9.9000000000000005E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="E3" s="2">
+        <v>28.853000000000002</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>-0.01</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>0.156</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+      <c r="E4" s="2">
+        <v>-6.2E-2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>-0.186</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>0.16500000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="E5" s="2">
+        <v>-1.1279999999999999</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.25900000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>0.13700000000000001</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>1.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+      <c r="E6" s="2">
+        <v>10.365</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>2.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+      <c r="E7" s="2">
+        <v>1.976</v>
+      </c>
+      <c r="F7" s="2">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>0.06</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>2.7E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="E8" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="F8" s="2">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>0.47199999999999998</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>2.1000000000000001E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+      <c r="E9" s="2">
+        <v>22.934000000000001</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+      <c r="E10" s="2">
+        <v>2.677</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+      <c r="E11" s="2">
+        <v>2.766</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>-5.2999999999999999E-2</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>2.1000000000000001E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="E12" s="2">
+        <v>-2.4969999999999999</v>
+      </c>
+      <c r="F12" s="2">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>1.236</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>4.2999999999999997E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
+      <c r="E13" s="2">
+        <v>28.681000000000001</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>0.20399999999999999</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>7.4999999999999997E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+      <c r="E14" s="2">
+        <v>2.7130000000000001</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>0.128</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="E15" s="2">
+        <v>1.762</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>1.8720000000000001</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
+      <c r="E17" s="2">
+        <v>11.689</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>-0.123</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>0.26300000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
+      <c r="E18" s="2">
+        <v>-0.46600000000000003</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.64100000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>-0.61899999999999999</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>0.312</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="E19" s="2">
+        <v>-1.9870000000000001</v>
+      </c>
+      <c r="F19" s="2">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>0.69299999999999995</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>0.28899999999999998</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+      <c r="E20" s="2">
+        <v>2.4009999999999998</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>-0.47</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>0.53200000000000003</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
+      <c r="E21" s="2">
+        <v>-0.88300000000000001</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.377</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>-1.3859999999999999</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>0.76400000000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="E22" s="2">
+        <v>-1.8149999999999999</v>
+      </c>
+      <c r="F22" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>2.1970000000000001</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>0.13600000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+      <c r="E23" s="2">
+        <v>16.146000000000001</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>-0.15</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <v>0.22500000000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
+      <c r="E24" s="2">
+        <v>-0.66400000000000003</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.50700000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>-0.216</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="E25" s="2">
+        <v>-0.93899999999999995</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0.34799999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>1.3779999999999999</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>0.33200000000000002</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
+      <c r="E26" s="2">
+        <v>4.1509999999999998</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>-0.55700000000000005</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="1">
         <v>0.498</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
+      <c r="E27" s="2">
+        <v>-1.117</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.26400000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>-1.655</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
         <v>0.76300000000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
+      <c r="E28" s="2">
+        <v>-2.17</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>-1.1419999999999999</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <v>0.46800000000000003</v>
+      </c>
+      <c r="E29" s="2">
+        <v>-2.4390000000000001</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
   </sheetData>
